--- a/dSP/src/main/java/com/testdata/TestDataForExecution.xlsx
+++ b/dSP/src/main/java/com/testdata/TestDataForExecution.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19935" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18225" windowHeight="5415"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCasesData" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="TestCaseData" sheetId="6" r:id="rId1"/>
+    <sheet name="NBSimulatorRequest" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:P24"/>
+  <oleSize ref="A27:J34"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="133">
   <si>
     <t>sb_imsi</t>
   </si>
@@ -33,9 +33,6 @@
     <t>TestCaseName</t>
   </si>
   <si>
-    <t>Data11</t>
-  </si>
-  <si>
     <t>Successful Order execution_Single Command_XML Request</t>
   </si>
   <si>
@@ -87,12 +84,6 @@
     <t>Failed Order execution_Single Command_Invalid Command URL_JSON Device</t>
   </si>
   <si>
-    <t>XML_INVALID_PRO_URL</t>
-  </si>
-  <si>
-    <t>JSON_INVALID_PRO_URL</t>
-  </si>
-  <si>
     <t>4 - DSP_NONSLAOPQ_TUPIL</t>
   </si>
   <si>
@@ -142,13 +133,495 @@
   </si>
   <si>
     <t>ProvisioningResponseCode</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_JMS XML</t>
+  </si>
+  <si>
+    <t>RequestType</t>
+  </si>
+  <si>
+    <t>DataType</t>
+  </si>
+  <si>
+    <t>QueueList</t>
+  </si>
+  <si>
+    <t>AddRequest</t>
+  </si>
+  <si>
+    <t>Data1</t>
+  </si>
+  <si>
+    <t>JMS</t>
+  </si>
+  <si>
+    <t>DSP_XMLRequestQueue_TUPIL</t>
+  </si>
+  <si>
+    <t>TestRequestXML</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>REST ASYNC</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_JMS JSON</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_REST ASYNC XML</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_REST ASYNC JSON</t>
+  </si>
+  <si>
+    <t>DSP_JSONRequestQueue_TUPIL</t>
+  </si>
+  <si>
+    <t>TestRequestJSON</t>
+  </si>
+  <si>
+    <t>NBOrderID</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Request_JMS XML</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Request_JMS JSON</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Request_Rest Async_XML</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Request_Rest Async_JSON</t>
+  </si>
+  <si>
+    <t>{
+  "REQUEST": {
+    "ORDER_ID": "Viral_0721_20",
+    "ACTION": "TESTPROVISIONINGINVALID",
+    "IMSI": "414061130340105",
+    "CIRCLE_ID": "1",
+    "CATEGORY": "PREPAID_USIM",
+    "SUB_CATEGORY": "REGULAR",
+    "KI": "8AED970E288D33EACCFDD64BE7FDC99E",
+    "K4": "2",
+    "TRANSPORTKEYID": "40",
+    "AUC_SUBTEMPLATE": "123450000000806",
+    "SCHEDULE": "DYNAMIC"
+  }
+}</t>
+  </si>
+  <si>
+    <t>Viral_0721_20</t>
+  </si>
+  <si>
+    <t>Viral_0721_19</t>
+  </si>
+  <si>
+    <t>Viral_0721_22</t>
+  </si>
+  <si>
+    <t>{
+  "REQUEST": {
+    "ORDER_ID": "Viral_0721_22",
+    "IMSI": "414061130340105",
+    "CIRCLE_ID": "1",
+    "CATEGORY": "PREPAID_USIM",
+    "SUB_CATEGORY": "REGULAR",
+    "KI": "8AED970E288D33EACCFDD64BE7FDC99E",
+    "K4": "2",
+    "TRANSPORTKEYID": "40",
+    "AUC_SUBTEMPLATE": "123450000000806",
+    "SCHEDULE": "DYNAMIC"
+  }
+}</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_JMS XML_SBDevice_SOAP</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Request_JMS XML_SBDevice_SOAP</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Request_JMS JSON_SBDevice_SOAP</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Request_Rest Async_XML_SBDevice_SOAP</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Request_Rest Async_JSON_SBDevice_SOAP</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Duplicate OrderID_JMS XML</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;REQUEST&gt;
+    &lt;ORDER_ID&gt;Viral_0723_01&lt;/ORDER_ID&gt;
+    &lt;ACTION&gt;TESTPROVISIONING&lt;/ACTION&gt;
+    &lt;IMSI&gt;414061130340105&lt;/IMSI&gt;
+    &lt;CIRCLE_ID&gt;1&lt;/CIRCLE_ID&gt;
+    &lt;CATEGORY&gt;PREPAID_USIM&lt;/CATEGORY&gt;
+    &lt;SUB_CATEGORY&gt;REGULAR&lt;/SUB_CATEGORY&gt;
+    &lt;KI&gt;8AED970E288D33EACCFDD64BE7FDC99E&lt;/KI&gt;
+    &lt;K4&gt;2&lt;/K4&gt;
+    &lt;TRANSPORTKEYID&gt;40&lt;/TRANSPORTKEYID&gt;
+    &lt;AUC_SUBTEMPLATE&gt;123450000000806&lt;/AUC_SUBTEMPLATE&gt;
+    &lt;SCHEDULE&gt;DYNAMIC&lt;/SCHEDULE&gt;
+&lt;/REQUEST&gt;</t>
+  </si>
+  <si>
+    <t>Viral_0723_01</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Duplicate OrderID_Rest Async_JSON</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Incorrect Provisioning URL_JMS XML</t>
+  </si>
+  <si>
+    <t>Viral_0723_11</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;REQUEST&gt;
+    &lt;ORDER_ID&gt;Viral_0723_11&lt;/ORDER_ID&gt;
+    &lt;ACTION&gt;TESTPROVISIONING&lt;/ACTION&gt;
+    &lt;IMSI&gt;414061130340105&lt;/IMSI&gt;
+    &lt;CIRCLE_ID&gt;1&lt;/CIRCLE_ID&gt;
+    &lt;CATEGORY&gt;PREPAID_USIM&lt;/CATEGORY&gt;
+    &lt;SUB_CATEGORY&gt;REGULAR&lt;/SUB_CATEGORY&gt;
+    &lt;KI&gt;8AED970E288D33EACCFDD64BE7FDC99E&lt;/KI&gt;
+    &lt;K4&gt;2&lt;/K4&gt;
+    &lt;TRANSPORTKEYID&gt;40&lt;/TRANSPORTKEYID&gt;
+    &lt;AUC_SUBTEMPLATE&gt;123450000000806&lt;/AUC_SUBTEMPLATE&gt;
+    &lt;SCHEDULE&gt;DYNAMIC&lt;/SCHEDULE&gt;
+&lt;/REQUEST&gt;</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Incorrect Provisioning URL_Rest Async_JSON</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Incorrect Command URL_JMS XML</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Incorrect Command URL_Rest Async_JSON</t>
+  </si>
+  <si>
+    <t>Viral_0723_14</t>
+  </si>
+  <si>
+    <t>{
+  "REQUEST": {
+    "ORDER_ID": "Viral_0723_14",
+    "IMSI": "414061130340105",
+    "CIRCLE_ID": "1",
+    "CATEGORY": "PREPAID_USIM",
+    "SUB_CATEGORY": "REGULAR",
+    "KI": "8AED970E288D33EACCFDD64BE7FDC99E",
+    "K4": "2",
+    "TRANSPORTKEYID": "40",
+    "AUC_SUBTEMPLATE": "123450000000806",
+    "SCHEDULE": "DYNAMIC"
+  }
+}</t>
+  </si>
+  <si>
+    <t>ProvisioningRequestStatus</t>
+  </si>
+  <si>
+    <t>Device Communication failure</t>
+  </si>
+  <si>
+    <t>Viral_0723_18</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;REQUEST&gt;
+    &lt;ORDER_ID&gt;Viral_0723_18&lt;/ORDER_ID&gt;
+    &lt;ACTION&gt;TESTPROVISIONING&lt;/ACTION&gt;
+    &lt;IMSI&gt;414061130340105&lt;/IMSI&gt;
+    &lt;CIRCLE_ID&gt;1&lt;/CIRCLE_ID&gt;
+    &lt;CATEGORY&gt;PREPAID_USIM&lt;/CATEGORY&gt;
+    &lt;SUB_CATEGORY&gt;REGULAR&lt;/SUB_CATEGORY&gt;
+    &lt;KI&gt;8AED970E288D33EACCFDD64BE7FDC99E&lt;/KI&gt;
+    &lt;K4&gt;2&lt;/K4&gt;
+    &lt;TRANSPORTKEYID&gt;40&lt;/TRANSPORTKEYID&gt;
+    &lt;AUC_SUBTEMPLATE&gt;123450000000806&lt;/AUC_SUBTEMPLATE&gt;
+    &lt;SCHEDULE&gt;DYNAMIC&lt;/SCHEDULE&gt;
+&lt;/REQUEST&gt;</t>
+  </si>
+  <si>
+    <t>searchDeviceName</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>provisioningURL</t>
+  </si>
+  <si>
+    <t>searchCommandName</t>
+  </si>
+  <si>
+    <t>CommandURL</t>
+  </si>
+  <si>
+    <t>DBLookuptable</t>
+  </si>
+  <si>
+    <t>http://provisioningservice-nhlr:9991/provisioning/execute</t>
+  </si>
+  <si>
+    <t>originalProvisioningURL</t>
+  </si>
+  <si>
+    <t>http://provisioningservice-nhlr:9996/provisioning/execute</t>
+  </si>
+  <si>
+    <t>HTTP SOAP</t>
+  </si>
+  <si>
+    <t>errorcodedblookup</t>
+  </si>
+  <si>
+    <t>http://10.151.1.163:8378/nhlr/addrequest</t>
+  </si>
+  <si>
+    <t>originalCommandURL</t>
+  </si>
+  <si>
+    <t>http://0.151.1.163:8378/nhlr/addrequest</t>
+  </si>
+  <si>
+    <t>HTTP REST</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Without OrderID_JMS XML</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;REQUEST&gt;
+    &lt;IMSI&gt;414061130340105&lt;/IMSI&gt;
+    &lt;CIRCLE_ID&gt;1&lt;/CIRCLE_ID&gt;
+    &lt;CATEGORY&gt;PREPAID_USIM&lt;/CATEGORY&gt;
+    &lt;SUB_CATEGORY&gt;REGULAR&lt;/SUB_CATEGORY&gt;
+    &lt;KI&gt;8AED970E288D33EACCFDD64BE7FDC99E&lt;/KI&gt;
+    &lt;K4&gt;2&lt;/K4&gt;
+    &lt;TRANSPORTKEYID&gt;40&lt;/TRANSPORTKEYID&gt;
+    &lt;AUC_SUBTEMPLATE&gt;123450000000806&lt;/AUC_SUBTEMPLATE&gt;
+    &lt;SCHEDULE&gt;DYNAMIC&lt;/SCHEDULE&gt;
+&lt;/REQUEST&gt;</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Syntactical Errors_JMS XML</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Without OrderID_Rest Async_JSON</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Syntatical Errors_JMS JSON</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Syntatical Errors_Rest Async_XML</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Syntatical Errors_Rest Async_JSON</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Data_JMS XML</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Data_JMS JSON</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Data_Rest Async_XML</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Data_Rest Async_JSON</t>
+  </si>
+  <si>
+    <t>Past Scheduled property_NB Order Request_Rest Async_XML</t>
+  </si>
+  <si>
+    <t>Past Scheduled property_NB Order Request_Rest Async_JSON</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;REQUEST&gt;
+    &lt;ORDER_ID&gt;Test_0729_08&lt;/ORDER_ID&gt;
+    &lt;ACTION&gt;TESTPROVISIONING&lt;/ACTION&gt;
+    &lt;IMSI&gt;414061130340105&lt;/IMSI&gt;
+    &lt;CIRCLE_ID&gt;8&lt;/CIRCLE_ID&gt;
+    &lt;CATEGORY&gt;PREPAID_USIM&lt;/CATEGORY&gt;
+    &lt;SUB_CATEGORY&gt;REGULAR&lt;/SUB_CATEGORY&gt;
+    &lt;KI&gt;8AED970E288D33EACCFDD64BE7FDC99E&lt;/KI&gt;
+    &lt;K4&gt;2&lt;/K4&gt;
+    &lt;TRANSPORTKEYID&gt;40&lt;/TRANSPORTKEYID&gt;
+    &lt;AUC_SUBTEMPLATE&gt;123450000000806&lt;/AUC_SUBTEMPLATE&gt;
+    &lt;SCHEDULE&gt;DYNAMIC&lt;/SCHEDULE&gt;
+&lt;/REQUEST&gt;</t>
+  </si>
+  <si>
+    <t>Test_0729_08</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;REQUEST&gt;
+    &lt;ORDER_ID&gt;Test_0729_10&lt;/ORDER_ID&gt;
+    &lt;IMSI&gt;414061130340105&lt;/IMSI&gt;
+    &lt;CIRCLE_ID&gt;8&lt;/CIRCLE_ID&gt;
+    &lt;CATEGORY&gt;PREPAID_USIM&lt;/CATEGORY&gt;
+    &lt;SUB_CATEGORY&gt;REGULAR&lt;/SUB_CATEGORY&gt;
+    &lt;KI&gt;8AED970E288D33EACCFDD64BE7FDC99E&lt;/KI&gt;
+    &lt;K4&gt;2&lt;/K4&gt;
+    &lt;TRANSPORTKEYID&gt;40&lt;/TRANSPORTKEYID&gt;
+    &lt;AUC_SUBTEMPLATE&gt;123450000000806&lt;/AUC_SUBTEMPLATE&gt;
+    &lt;SCHEDULE&gt;DYNAMIC&lt;/SCHEDULE&gt;
+&lt;/REQUEST&gt;</t>
+  </si>
+  <si>
+    <t>Test_0729_10</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;REQUEST&gt;
+    &lt;ORDER_ID&gt;Test_0729_11&lt;/ORDER_ID&gt;
+    &lt;ACTION&gt;TESTPROVISIONING&lt;/ACTION&gt;
+    &lt;IMSI&gt;414061130340105&lt;/IMSI&gt;
+    &lt;CIRCLE_ID&gt;8&lt;/CIRCLE_ID&gt;
+    &lt;CATEGORY&gt;PREPAID_USIM&lt;/CATEGORY&gt;
+    &lt;SUB_CATEGORY&gt;REGULAR&lt;/SUB_CATEGORY&gt;
+    &lt;KI&gt;8AED970E288D33EACCFDD64BE7FDC99E&lt;/KI&gt;
+    &lt;K4&gt;2&lt;/K4&gt;
+    &lt;TRANSPORTKEYID&gt;40&lt;/TRANSPORTKEYID&gt;
+    &lt;AUC_SUBTEMPLATE&gt;123450000000806&lt;/AUC_SUBTEMPLATE&gt;
+    &lt;SCHEDULE&gt;DYNAMIC&lt;/SCHEDULE&gt;
+&lt;/REQUEST&gt;</t>
+  </si>
+  <si>
+    <t>Test_0729_11</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;REQUEST&gt;
+    &lt;ORDER_ID&gt;Test_0729_12&lt;/ORDER_ID&gt;
+    &lt;ACTION&gt;TESTPROVISIO&lt;/ACTION&gt;
+    &lt;IMSI&gt;414061130340105&lt;/IMSI&gt;
+    &lt;CIRCLE_ID&gt;8&lt;/CIRCLE_ID&gt;
+    &lt;CATEGORY&gt;PREPAID_USIM&lt;/CATEGORY&gt;
+    &lt;SUB_CATEGORY&gt;REGULAR&lt;/SUB_CATEGORY&gt;
+    &lt;KI&gt;8AED970E288D33EACCFDD64BE7FDC99E&lt;/KI&gt;
+    &lt;K4&gt;2&lt;/K4&gt;
+    &lt;TRANSPORTKEYID&gt;40&lt;/TRANSPORTKEYID&gt;
+    &lt;AUC_SUBTEMPLATE&gt;123450000000806&lt;/AUC_SUBTEMPLATE&gt;
+    &lt;SCHEDULE&gt;DYNAMIC&lt;/SCHEDULE&gt;
+&lt;/REQUEST&gt;</t>
+  </si>
+  <si>
+    <t>Test_0729_12</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_JMS JSON_SBDevice_SOAP</t>
+  </si>
+  <si>
+    <t>{
+  "ACTION":"TESTPROVISIONINGJSON",
+  "ORDER_ID":"Test_29_21",
+  "SCHEDULE":"DYNAMIC",
+  "orderData":{
+    "IMSI":"414061130340105",
+    "CIRCLE_ID":"1",
+    "CATEGORY":"PREPAID_USIM",
+    "SUB_CATEGORY":"REGULAR",
+    "KI":"8AED970E288D33EACCFDD64BE7FDC99E",
+    "K4":"2",
+    "TRANSPORTKEYID":"40",
+    "AUC_SUBTEMPLATE":"123450000000806",
+    "SCHEDULE":"2018-01-22T13:06:33"
+  }
+}</t>
+  </si>
+  <si>
+    <t>Test_29_21</t>
+  </si>
+  <si>
+    <t>Test_29_22</t>
+  </si>
+  <si>
+    <t>{
+  "ACTION":"PROVISIONINGJSON",
+  "ORDER_ID":"Test_29_22",
+  "SCHEDULE":"DYNAMIC",
+  "orderData":{
+    "IMSI":"414061130340105",
+    "CIRCLE_ID":"1",
+    "CATEGORY":"PREPAID_USIM",
+    "SUB_CATEGORY":"REGULAR",
+    "KI":"8AED970E288D33EACCFDD64BE7FDC99E",
+    "K4":"2",
+    "TRANSPORTKEYID":"40",
+    "AUC_SUBTEMPLATE":"123450000000806",
+    "SCHEDULE":"2018-01-22T13:06:33"
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "ORDER_ID":"Test_29_24",
+  "SCHEDULE":"DYNAMIC",
+  "orderData":{
+    "IMSI":"414061130340105",
+    "CIRCLE_ID":"1",
+    "CATEGORY":"PREPAID_USIM",
+    "SUB_CATEGORY":"REGULAR",
+    "KI":"8AED970E288D33EACCFDD64BE7FDC99E",
+    "K4":"2",
+    "TRANSPORTKEYID":"40",
+    "AUC_SUBTEMPLATE":"123450000000806",
+    "SCHEDULE":"2018-01-22T13:06:33"
+  }
+}</t>
+  </si>
+  <si>
+    <t>Test_29_24</t>
+  </si>
+  <si>
+    <t>Test_29_23</t>
+  </si>
+  <si>
+    <t>{
+  "ACTION":"TESTPROVISIONINGJSON",
+  "ORDER_ID":"Test_29_23",
+  "SCHEDULE":"DYNAMIC",
+  "orderData":{
+    "IMSI":"414061130340105",
+    "CIRCLE_ID":"1",
+    "CATEGORY":"PREPAID_USIM",
+    "SUB_CATEGORY":"REGULAR",
+    "KI":"8AED970E288D33EACCFDD64BE7FDC99E",
+    "K4":"2",
+    "TRANSPORTKEYID":"40",
+    "AUC_SUBTEMPLATE":"123450000000806",
+    "SCHEDULE":"2018-01-22T13:06:33"
+  }
+}</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_REST ASYNC_JSON_SBDevice_SOAP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +636,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -188,10 +668,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -202,8 +686,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -496,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -509,20 +997,21 @@
     <col min="3" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="12" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30">
+    <row r="1" spans="1:25" ht="60">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -534,39 +1023,78 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="60">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="60">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
@@ -575,28 +1103,28 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="60">
+    <row r="3" spans="1:25" ht="60">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
@@ -607,28 +1135,28 @@
         <v>123</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="60">
+    <row r="4" spans="1:25" ht="60">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>1</v>
@@ -637,28 +1165,28 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="60">
+    <row r="5" spans="1:25" ht="60">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>1</v>
@@ -669,28 +1197,28 @@
         <v>123</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="75">
+    <row r="6" spans="1:25" ht="105">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>1</v>
@@ -699,60 +1227,75 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" ht="75">
+      <c r="R6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="105">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" ht="75">
+      <c r="T7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="75">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>1</v>
@@ -761,44 +1304,86 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="75">
+      <c r="R8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="75">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="60">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -809,24 +1394,46 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="60">
+      <c r="A11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="60">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -837,36 +1444,603 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:25" ht="60">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="60">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="60">
+      <c r="A15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="60">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" ht="60">
+      <c r="A17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="75">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="75">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="75">
+      <c r="A20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="75">
+      <c r="A21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="75">
+      <c r="A22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="75">
+      <c r="A23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="75">
+      <c r="A24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="75">
+      <c r="A25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="60">
+      <c r="A26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="60">
+      <c r="A27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="60">
+      <c r="A28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="75">
+      <c r="A29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="60">
+      <c r="A30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="75">
+      <c r="A31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="60">
+      <c r="A32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="60">
+      <c r="A33" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="45">
+      <c r="A34" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="45">
+      <c r="A35" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="60">
+      <c r="A36" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="60">
+      <c r="A37" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="45">
+      <c r="A38" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="45">
+      <c r="A39" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="60">
+      <c r="A40" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="60">
+      <c r="A41" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="60">
+      <c r="A42" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="60">
+      <c r="A43" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T6" r:id="rId1"/>
+    <hyperlink ref="T7" r:id="rId2"/>
+    <hyperlink ref="X6" r:id="rId3"/>
+    <hyperlink ref="X7" r:id="rId4"/>
+    <hyperlink ref="V8" r:id="rId5"/>
+    <hyperlink ref="Y8" r:id="rId6"/>
+    <hyperlink ref="V9" r:id="rId7"/>
+    <hyperlink ref="Y9" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dSP/src/main/java/com/testdata/TestDataForExecution.xlsx
+++ b/dSP/src/main/java/com/testdata/TestDataForExecution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="18225" windowHeight="5415"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18225" windowHeight="6675"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseData" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="239">
   <si>
     <t>sb_imsi</t>
   </si>
@@ -261,50 +261,12 @@
     <t>Failed NB Order Request_Duplicate OrderID_JMS XML</t>
   </si>
   <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
-&lt;REQUEST&gt;
-    &lt;ORDER_ID&gt;Viral_0723_01&lt;/ORDER_ID&gt;
-    &lt;ACTION&gt;TESTPROVISIONING&lt;/ACTION&gt;
-    &lt;IMSI&gt;414061130340105&lt;/IMSI&gt;
-    &lt;CIRCLE_ID&gt;1&lt;/CIRCLE_ID&gt;
-    &lt;CATEGORY&gt;PREPAID_USIM&lt;/CATEGORY&gt;
-    &lt;SUB_CATEGORY&gt;REGULAR&lt;/SUB_CATEGORY&gt;
-    &lt;KI&gt;8AED970E288D33EACCFDD64BE7FDC99E&lt;/KI&gt;
-    &lt;K4&gt;2&lt;/K4&gt;
-    &lt;TRANSPORTKEYID&gt;40&lt;/TRANSPORTKEYID&gt;
-    &lt;AUC_SUBTEMPLATE&gt;123450000000806&lt;/AUC_SUBTEMPLATE&gt;
-    &lt;SCHEDULE&gt;DYNAMIC&lt;/SCHEDULE&gt;
-&lt;/REQUEST&gt;</t>
-  </si>
-  <si>
-    <t>Viral_0723_01</t>
-  </si>
-  <si>
     <t>Failed NB Order Request_Duplicate OrderID_Rest Async_JSON</t>
   </si>
   <si>
     <t>Failed NB Order Request_Incorrect Provisioning URL_JMS XML</t>
   </si>
   <si>
-    <t>Viral_0723_11</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
-&lt;REQUEST&gt;
-    &lt;ORDER_ID&gt;Viral_0723_11&lt;/ORDER_ID&gt;
-    &lt;ACTION&gt;TESTPROVISIONING&lt;/ACTION&gt;
-    &lt;IMSI&gt;414061130340105&lt;/IMSI&gt;
-    &lt;CIRCLE_ID&gt;1&lt;/CIRCLE_ID&gt;
-    &lt;CATEGORY&gt;PREPAID_USIM&lt;/CATEGORY&gt;
-    &lt;SUB_CATEGORY&gt;REGULAR&lt;/SUB_CATEGORY&gt;
-    &lt;KI&gt;8AED970E288D33EACCFDD64BE7FDC99E&lt;/KI&gt;
-    &lt;K4&gt;2&lt;/K4&gt;
-    &lt;TRANSPORTKEYID&gt;40&lt;/TRANSPORTKEYID&gt;
-    &lt;AUC_SUBTEMPLATE&gt;123450000000806&lt;/AUC_SUBTEMPLATE&gt;
-    &lt;SCHEDULE&gt;DYNAMIC&lt;/SCHEDULE&gt;
-&lt;/REQUEST&gt;</t>
-  </si>
-  <si>
     <t>Failed NB Order Request_Incorrect Provisioning URL_Rest Async_JSON</t>
   </si>
   <si>
@@ -312,25 +274,6 @@
   </si>
   <si>
     <t>Failed NB Order Request_Incorrect Command URL_Rest Async_JSON</t>
-  </si>
-  <si>
-    <t>Viral_0723_14</t>
-  </si>
-  <si>
-    <t>{
-  "REQUEST": {
-    "ORDER_ID": "Viral_0723_14",
-    "IMSI": "414061130340105",
-    "CIRCLE_ID": "1",
-    "CATEGORY": "PREPAID_USIM",
-    "SUB_CATEGORY": "REGULAR",
-    "KI": "8AED970E288D33EACCFDD64BE7FDC99E",
-    "K4": "2",
-    "TRANSPORTKEYID": "40",
-    "AUC_SUBTEMPLATE": "123450000000806",
-    "SCHEDULE": "DYNAMIC"
-  }
-}</t>
   </si>
   <si>
     <t>ProvisioningRequestStatus</t>
@@ -406,20 +349,6 @@
     <t>Failed NB Order Request_Without OrderID_JMS XML</t>
   </si>
   <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
-&lt;REQUEST&gt;
-    &lt;IMSI&gt;414061130340105&lt;/IMSI&gt;
-    &lt;CIRCLE_ID&gt;1&lt;/CIRCLE_ID&gt;
-    &lt;CATEGORY&gt;PREPAID_USIM&lt;/CATEGORY&gt;
-    &lt;SUB_CATEGORY&gt;REGULAR&lt;/SUB_CATEGORY&gt;
-    &lt;KI&gt;8AED970E288D33EACCFDD64BE7FDC99E&lt;/KI&gt;
-    &lt;K4&gt;2&lt;/K4&gt;
-    &lt;TRANSPORTKEYID&gt;40&lt;/TRANSPORTKEYID&gt;
-    &lt;AUC_SUBTEMPLATE&gt;123450000000806&lt;/AUC_SUBTEMPLATE&gt;
-    &lt;SCHEDULE&gt;DYNAMIC&lt;/SCHEDULE&gt;
-&lt;/REQUEST&gt;</t>
-  </si>
-  <si>
     <t>Failed NB Order Request_Syntactical Errors_JMS XML</t>
   </si>
   <si>
@@ -445,9 +374,6 @@
   </si>
   <si>
     <t>Failed NB Order Request_Invalid Data_Rest Async_JSON</t>
-  </si>
-  <si>
-    <t>Past Scheduled property_NB Order Request_Rest Async_XML</t>
   </si>
   <si>
     <t>Past Scheduled property_NB Order Request_Rest Async_JSON</t>
@@ -615,6 +541,532 @@
   </si>
   <si>
     <t>Successful NB Order Request_REST ASYNC_JSON_SBDevice_SOAP</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;REQUEST&gt;
+    &lt;ORDER_ID&gt;Test_0408_4&lt;/ORDER_ID&gt;
+    &lt;ACTION&gt;TESTPROVISIONING&lt;/ACTION&gt;
+    &lt;IMSI&gt;414061130340105&lt;/IMSI&gt;
+    &lt;CIRCLE_ID&gt;8&lt;/CIRCLE_ID&gt;
+    &lt;CATEGORY&gt;PREPAID_USIM&lt;/CATEGORY&gt;
+    &lt;SUB_CATEGORY&gt;REGULAR&lt;/SUB_CATEGORY&gt;
+    &lt;KI&gt;8AED970E288D33EACCFDD64BE7FDC99E&lt;/KI&gt;
+    &lt;K4&gt;2&lt;/K4&gt;
+    &lt;TRANSPORTKEYID&gt;40&lt;/TRANSPORTKEYID&gt;
+    &lt;AUC_SUBTEMPLATE&gt;123450000000806&lt;/AUC_SUBTEMPLATE&gt;
+    &lt;SCHEDULE&gt;DYNAMIC&lt;/SCHEDULE&gt;
+&lt;/REQUEST&gt;</t>
+  </si>
+  <si>
+    <t>Test_0408_4</t>
+  </si>
+  <si>
+    <t>{
+  "ACTION":"TESTPROVISIONINGJSON",
+  "ORDER_ID":"Test_08_04_09",
+  "SCHEDULE":"DYNAMIC",
+  "orderData":{
+    "IMSI":"414061130340105",
+    "CIRCLE_ID":"1",
+    "CATEGORY":"PREPAID_USIM",
+    "SUB_CATEGORY":"REGULAR",
+    "KI":"8AED970E288D33EACCFDD64BE7FDC99E",
+    "K4":"2",
+    "TRANSPORTKEYID":"40",
+    "AUC_SUBTEMPLATE":"123450000000806",
+    "SCHEDULE":"2018-01-22T13:06:33"
+  }
+}</t>
+  </si>
+  <si>
+    <t>Test_08_04_09</t>
+  </si>
+  <si>
+    <t>http://provisioningservice-nhlr:999/provisioning/execute</t>
+  </si>
+  <si>
+    <t>http://.151.1.163:8378/nhlr/addrequest</t>
+  </si>
+  <si>
+    <t>{
+  "ACTION":"TESTPROVISIONINGJSON",
+  "ORDER_ID":"Test_08_04_14",
+  "SCHEDULE":"DYNAMIC",
+  "orderData":{
+    "IMSI":"414061130340105",
+    "CIRCLE_ID":"1",
+    "CATEGORY":"PREPAID_USIM",
+    "SUB_CATEGORY":"REGULAR",
+    "KI":"8AED970E288D33EACCFDD64BE7FDC99E",
+    "K4":"2",
+    "TRANSPORTKEYID":"40",
+    "AUC_SUBTEMPLATE":"123450000000806",
+    "SCHEDULE":"2018-01-22T13:06:33"
+  }
+}</t>
+  </si>
+  <si>
+    <t>Test_08_04_14</t>
+  </si>
+  <si>
+    <t>{
+  "ACTION":"TESTPROVISIONINGJSON",
+  "ORDER_ID":"Test_08_04_17",
+  "SCHEDULE":"DYNAMIC",
+  "orderData":{
+    "IMSI":"414061130340105",
+    "CIRCLE_ID":"1",
+    "CATEGORY":"PREPAID_USIM",
+    "SUB_CATEGORY":"REGULAR",
+    "KI":"8AED970E288D33EACCFDD64BE7FDC99E",
+    "K4":"2",
+    "TRANSPORTKEYID":"40",
+    "AUC_SUBTEMPLATE":"123450000000806",
+    "SCHEDULE":"2018-01-22T13:06:33"
+  }
+}</t>
+  </si>
+  <si>
+    <t>Test_08_04_17</t>
+  </si>
+  <si>
+    <t>414061130340109</t>
+  </si>
+  <si>
+    <t>{
+  "ACTION":"TESTPROVISIONINGJSON",
+  "SCHEDULE":"DYNAMIC",
+  "orderData":{
+    "IMSI":"414061130340109",
+    "CIRCLE_ID":"1",
+    "CATEGORY":"PREPAID_USIM",
+    "SUB_CATEGORY":"REGULAR",
+    "KI":"8AED970E288D33EACCFDD64BE7FDC99E",
+    "K4":"2",
+    "TRANSPORTKEYID":"40",
+    "AUC_SUBTEMPLATE":"123450000000806",
+    "SCHEDULE":"2018-01-22T13:06:33"
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "ACTION":"TESTPROVISIONINGJSON",
+  "SCHEDULE":"DYNAMIC",
+  "orderData":{
+    "IMSI":"414061130340109",
+    "CIRCLE_ID":"1",
+    "CATEGORY":"PREPAID_USIM",
+    "SUB_CATEGORY":"REGULAR",
+    "KI":"8AED970E288D33EACCFDD64BE7FDC99E",
+    "K4":"2",
+    "TRANSPORTKEYID":"40",
+    "AUC_SUBTEMPLATE":"123450000000806",
+    "SCHEDULE":"2018-01-22T13:06:33"
+  }</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;REQUEST&gt;
+    &lt;ORDER_ID&gt;Test_0729_10&lt;/ORDER_ID&gt;
+    &lt;IMSI&gt;414061130340105&lt;/IMS
+    &lt;CIRCLE_ID&gt;8&lt;/CIRCLE_ID&gt;
+    &lt;CATEGORY&gt;PREPAID_USIM&lt;/CATEGORY&gt;
+    &lt;SUB_CATEGORY&gt;REGULAR&lt;/SUB_CATEGORY&gt;
+    &lt;KI&gt;8AED970E288D33EACCFDD64BE7FDC99E&lt;/KI&gt;
+    &lt;K4&gt;2&lt;/K4&gt;
+    &lt;TRANSPORTKEYID&gt;40&lt;/TRANSPORTKEYID&gt;
+    &lt;AUC_SUBTEMPLATE&gt;123450000000806&lt;/AUC_SUBTEMPLATE&gt;
+    &lt;SCHEDULE&gt;DYNAMIC&lt;/SCHEDULE&gt;
+&lt;/REQUEST&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;REQUEST&gt;
+    &lt;ORDER_ID&gt;Test_0729_10&lt;/ORDER_ID&gt;
+    &lt;IMSI&gt;414061130340105&lt;/IMSI&gt;
+    &lt;CIRCLE_ID&gt;8&lt;/CIRCLE_ID&gt;
+    &lt;CATEGORY&gt;PREPAID_USIM&lt;/CATEGORY&gt;
+    &lt;SUB_CATEGORY&gt;REGULAR&lt;/SUB_CATEGORY&gt;
+    &lt;KI&gt;8AED970E288D33EACCFDD64BE7FDC99E&lt;/KI&gt;
+    &lt;K4&gt;2&lt;/K4&gt;
+    &lt;TRANSPORTKEYID&gt;40&lt;/TRANSPORTKEYID&gt;
+    &lt;AUC_SUBTEMPLATE&gt;123450000000806&lt;/AUC_SUBTEMPLATE&gt;
+    &lt;SCHEDULE&gt;DYNAMIC&lt;/SCHEDULE&gt;
+&lt;/RE</t>
+  </si>
+  <si>
+    <t>{
+  "ACTION":"TESTPROVISIONINGJSON",
+"ORDER_ID":"Test_08_04_18",
+  "SCHEDULE":"DYNAMIC",
+  "orderData":{
+    "IMSI":"061130340109",
+    "CIRCLE_ID":"1",
+    "CATEGORY":"PREPAID_USIM",
+    "SUB_CATEGORY":"REGULAR",
+    "KI":"8AED970E288D33EACCFDD64BE7FDC99E",
+    "K4":"2",
+    "TRANSPORTKEYID":"40",
+    "AUC_SUBTEMPLATE":"123450000000806",
+    "SCHEDULE":"2018-01-22T13:06:33"
+  }
+}</t>
+  </si>
+  <si>
+    <t>Test_08_04_18</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;REQUEST&gt;
+    &lt;ORDER_ID&gt;Test_0408_19&lt;/ORDER_ID&gt;
+    &lt;ACTION&gt;TESTPROVISIONING&lt;/ACTION&gt;
+    &lt;IMSI&gt;414061130340105&lt;/IMSI&gt;
+    &lt;CIRCLE_ID&gt;8&lt;/CIRCLE_ID&gt;
+    &lt;CATEGORY&gt;PREPAID_USIM&lt;/CATEGORY&gt;
+    &lt;SUB_CATEGORY&gt;REGULAR&lt;/SUB_CATEGORY&gt;
+    &lt;KI&gt;8AED970E288D33EACCFDD64BE7FDC99E&lt;/KI&gt;
+    &lt;K4&gt;2&lt;/K4&gt;
+    &lt;TRANSPORTKEYID&gt;40&lt;/TRANSPORTKEYID&gt;
+    &lt;AUC_SUBTEMPLATE&gt;123450000000806&lt;/AUC_SUBTEMPLATE&gt;
+    &lt;SCHEDULE&gt;DYNAMIC&lt;/SCHEDULE&gt;
+&lt;/REQUEST&gt;</t>
+  </si>
+  <si>
+    <t>Test_08_04_19</t>
+  </si>
+  <si>
+    <t>Test_08_04_21</t>
+  </si>
+  <si>
+    <t>Test_08_04_20</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;REQUEST&gt;
+    &lt;ORDER_ID&gt;Test_0408_20&lt;/ORDER_ID&gt;
+    &lt;ACTION&gt;TESTPROVISIONING&lt;/ACTION&gt;
+    &lt;IMSI&gt;414061130340105&lt;/IMSI&gt;
+    &lt;CIRCLE_ID&gt;8&lt;/CIRCLE_ID&gt;
+    &lt;CATEGORY&gt;PREPAID_USIM&lt;/CATEGORY&gt;
+    &lt;SUB_CATEGORY&gt;REGULAR&lt;/SUB_CATEGORY&gt;
+    &lt;KI&gt;8AED970E288D33EACCFDD64BE7FDC99E&lt;/KI&gt;
+    &lt;K4&gt;2&lt;/K4&gt;
+    &lt;TRANSPORTKEYID&gt;40&lt;/TRANSPORTKEYID&gt;
+    &lt;AUC_SUBTEMPLATE&gt;123450000000806&lt;/AUC_SUBTEMPLATE&gt;
+    &lt;SCHEDULE&gt;DYNAMIC&lt;/SCHEDULE&gt;
+&lt;/REQUEST&gt;</t>
+  </si>
+  <si>
+    <t>{
+  "ACTION":"TESTPROVISIONINGJSON",
+"ORDER_ID":"Test_08_04_21",
+  "SCHEDULE":"DYNAMIC",
+  "orderData":{
+    "IMSI":"061130340109",
+    "CIRCLE_ID":"1",
+    "CATEGORY":"PREPAID_USIM",
+    "SUB_CATEGORY":"REGULAR",
+    "KI":"8AED970E288D33EACCFDD64BE7FDC99E",
+    "K4":"2",
+    "TRANSPORTKEYID":"40",
+    "AUC_SUBTEMPLATE":"123450000000806",
+    "SCHEDULE":"2018-01-22T13:06:33"
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "ACTION":"TESTPROVISIONINGJSON",
+  "ORDER_ID":"Test_08_04_24",
+  "SCHEDULE":"DYNAMIC",
+  "orderData":{
+    "IMSI":"414061130340105",
+    "CIRCLE_ID":"1",
+    "CATEGORY":"PREPAID_USIM",
+    "SUB_CATEGORY":"REGULAR",
+    "KI":"8AED970E288D33EACCFDD64BE7FDC99E",
+    "K4":"2",
+    "TRANSPORTKEYID":"40",
+    "AUC_SUBTEMPLATE":"123450000000806",
+    "SCHEDULE":"2018-01-22T13:06:33"
+  }
+}</t>
+  </si>
+  <si>
+    <t>Test_08_04_24</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_JMS XML_Intellza Configuration Status Enabled</t>
+  </si>
+  <si>
+    <t>Past Scheduled property_NB Order Request_Rest Async_XML</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_Rest Async_XML_Intellza Delivery Flag is disabled</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_JMS JSON_Intellza Delivery Flag is disabled</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_Rest Async_JSON_Response Queue_Delivery Status</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_Rest Async_XML_Response Queue_Delivery Status</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_JMS JSON_Response Queue_Delivery Status</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_JMS XML_Response Queue_Delivery Status</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_Rest Async_JSON_Intellza Configuration Status Disabled</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_Rest Async_XML_Intellza Configuration Status Disabed</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_JMS JSON_Intellza Configuration Status Enabled</t>
+  </si>
+  <si>
+    <t>NB Order Request_8 Priority_JMS JSON</t>
+  </si>
+  <si>
+    <t>NB Order Request_4 Priority_JMS XML</t>
+  </si>
+  <si>
+    <t>NB Order Request_3 Priority_JMS JSON</t>
+  </si>
+  <si>
+    <t>NB Order Request_0 Priority_JMS XML</t>
+  </si>
+  <si>
+    <t>Future Scheduled property_NB Order Request_Rest Async_XML</t>
+  </si>
+  <si>
+    <t>Future Scheduled property_NB Order Request_Rest Async_JSON</t>
+  </si>
+  <si>
+    <t>NB Order Request_Loopback Enable_JMS XML_
+Loopback Response</t>
+  </si>
+  <si>
+    <t>NB Order Request_Loopback Enable_JMS JSON_
+Loopback Response</t>
+  </si>
+  <si>
+    <t>NB Order Request_Loopback Enable_Rest Async_XML_
+Loopback Response</t>
+  </si>
+  <si>
+    <t>NB Order Request_Loopback Enable_Rest Async_JSON_
+Loopback Response</t>
+  </si>
+  <si>
+    <t>Successful Order execution_Device_XML Protocol_Create screen</t>
+  </si>
+  <si>
+    <t>Successful Order execution_Device_JSON Protocol_Create screen</t>
+  </si>
+  <si>
+    <t>Failed Order execution_Incorrect Provisioning URL for Device_XML_Create screen</t>
+  </si>
+  <si>
+    <t>Failed Order execution_Incorrect Provisioning URL for Device_JSON Protocol_Create screen</t>
+  </si>
+  <si>
+    <t>Failed Order execution_Incorrect Command URL for Device_XML_Create screen</t>
+  </si>
+  <si>
+    <t>Failed Order execution_Incorrect Command URL for Device_JSON Protocol_Create screen</t>
+  </si>
+  <si>
+    <t>Failed Order execution_Invalid credentials for Device_XML_Create screen</t>
+  </si>
+  <si>
+    <t>Failed Order execution_Invalid credentials for Device_JSON Protocol_Create screen</t>
+  </si>
+  <si>
+    <t>Resubmit Failed Service Order_Single Command_Order View screen</t>
+  </si>
+  <si>
+    <t>Resubmit Failed Service Order_Process Flow_Order View screen</t>
+  </si>
+  <si>
+    <t>Resubmit Failed Service Order_Single Command_Response Code Unavailability</t>
+  </si>
+  <si>
+    <t>Resubmit Failed Service Order_Single Command_Command Execution failed</t>
+  </si>
+  <si>
+    <t>Resubmit Failed Service Order_Process Flow_Response Code Unavailability</t>
+  </si>
+  <si>
+    <t>Resubmit Failed Service Order_Process Flow_Command Execution failed</t>
+  </si>
+  <si>
+    <t>The use of this test case is to check the robustness and ability of NB Request MS to be able to process all the request messages. No single request should be in 'InProgress' state.</t>
+  </si>
+  <si>
+    <t>The use of this test case is to check the robustness and ability of Provisioning MS to be able to process all the request messages. No single request should be in 'InProgress' state.</t>
+  </si>
+  <si>
+    <t>The use of this test case is to check the robustness and ability of Rest Async MS to be able to process all the request messages. No single request should be in 'InProgress' state</t>
+  </si>
+  <si>
+    <t>The use of this test case is to check Zero order loss when DB Connectivity is broken during the ongoing process</t>
+  </si>
+  <si>
+    <t>The use of this test case is to check Zero order loss when ActiveMQ connection is broken during the ongoing process</t>
+  </si>
+  <si>
+    <t>The use of this test case is to check Zero order loss when Hazelcast connection is broken during the ongoing process</t>
+  </si>
+  <si>
+    <t>The use of this test case is to check Zero order loss when OPS MS pod is down during the ongoing process</t>
+  </si>
+  <si>
+    <t>The use of this test case is to check Zero order loss when NB Response MS pod is down during the ongoing process</t>
+  </si>
+  <si>
+    <t>Non created Service Orders_Successful execution_SOAP Protocol</t>
+  </si>
+  <si>
+    <t>Non created Service Orders_Successful execution_JSON Protocol</t>
+  </si>
+  <si>
+    <t>Non created Service Orders_Failed execution_Provisioning URL</t>
+  </si>
+  <si>
+    <t>Non created Service Orders_Failed execution_Command URL</t>
+  </si>
+  <si>
+    <t>Non created Service Orders_Failed execution_Syntatical Error_NB Request</t>
+  </si>
+  <si>
+    <t>Non created Service Orders_Failed execution_Invalid Data_NB Request</t>
+  </si>
+  <si>
+    <t>Non created Service Orders_Failed execution_Incorrect Credentials_NB Request</t>
+  </si>
+  <si>
+    <t>NB Request_DLQ Execution_Successful execution</t>
+  </si>
+  <si>
+    <t>OPS Request_DLQ Execution_Successful execution</t>
+  </si>
+  <si>
+    <t>Provisioning Request_DLQ Execution_Successful execution</t>
+  </si>
+  <si>
+    <t>NB Response Request_DLQ Execution_Successful execution</t>
+  </si>
+  <si>
+    <t>Batch_DLQ Execution_Successful execution</t>
+  </si>
+  <si>
+    <t>NB Request_DLQ Execution_Failed execution_Provisioning URL</t>
+  </si>
+  <si>
+    <t>OPS Request_DLQ Execution_Failed execution_Command URL</t>
+  </si>
+  <si>
+    <t>Provisioning Request_DLQ Execution_Failed execution_Syntatical Error_NB Request</t>
+  </si>
+  <si>
+    <t>NBResponse Request_DLQ Execution_Failed execution_Invalid Data_NB Request</t>
+  </si>
+  <si>
+    <t>Batch_DLQ Execution_Failed execution_Incorrect Credentials_NB Request</t>
+  </si>
+  <si>
+    <t>Batch Upload_CSV File_Process Flow_Local Upload</t>
+  </si>
+  <si>
+    <t>Batch Upload_CSV File_Command Execution_Remote Upload</t>
+  </si>
+  <si>
+    <t>Batch Upload_CSV File_Process Flow_Blank for Mendatory fields_All Orders_Remote Upload</t>
+  </si>
+  <si>
+    <t>Batch Upload_CSV File_Command Execution_Blank for Mendatory fields_All Orders_Local Upload</t>
+  </si>
+  <si>
+    <t>Batch Upload_CSV File_Process Flow_Blank for Mendatory fields_Few Orders_Local Upload</t>
+  </si>
+  <si>
+    <t>Batch Upload_CSV File_Command Execution_Blank for Mendatory fields_Few Orders_Remote Upload</t>
+  </si>
+  <si>
+    <t>Batch Upload_CSV File_Process Flow_Incorrect for Mendatory fields_Few Orders_Remote Upload</t>
+  </si>
+  <si>
+    <t>Batch Upload_CSV File_Command Execution_Incorrect for Mendatory fields_Few Orders_Local Upload</t>
+  </si>
+  <si>
+    <t>Batch Upload_Run Batch_Command Execution</t>
+  </si>
+  <si>
+    <t>Batch Upload_Terminate Scheduled Batch_Command Execution</t>
+  </si>
+  <si>
+    <t>Batch Upload_Run terminated Batch_Command Execution</t>
+  </si>
+  <si>
+    <t>Batch Upload_Stop Inprogress Batch_Command Execution</t>
+  </si>
+  <si>
+    <t>Batch Upload_Resume stopped Batch_Command Execution</t>
+  </si>
+  <si>
+    <t>Batch Upload_Terminate Scheduled Batch_Process Flow</t>
+  </si>
+  <si>
+    <t>Batch Upload_Run Batch_Process Flow</t>
+  </si>
+  <si>
+    <t>Batch Upload_Run terminated Batch_Process Flow</t>
+  </si>
+  <si>
+    <t>Batch Upload_Stop Inprogress Batch_Process Flow</t>
+  </si>
+  <si>
+    <t>Batch Upload_Resume stopped Batch_Process Flow</t>
+  </si>
+  <si>
+    <t>Single Command_Invalid Command URL_XML Device_DBLookup_No</t>
+  </si>
+  <si>
+    <t>Single Command_Invalid Command URL_JSON Device_DBLookup_No</t>
+  </si>
+  <si>
+    <t>Single Command_Invalid Provisioning URL_XML Device_DBLookup_No</t>
+  </si>
+  <si>
+    <t>Single Command_Invalid Provisioning URL_JSON Device_DBLookup_No</t>
+  </si>
+  <si>
+    <t>Fallout Bulk Reprovisioning_5 Orders with same IMSI</t>
+  </si>
+  <si>
+    <t>Repush Bulk Response_All Response</t>
+  </si>
+  <si>
+    <t>Batch Upload_CSV File_Process Flow_Download Success Order details</t>
+  </si>
+  <si>
+    <t>Batch Upload_CSV File_Command Execution_Download Fail Order details</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>LoopbackStatus</t>
+  </si>
+  <si>
+    <t>IntellzaConfigStatus</t>
   </si>
 </sst>
 </file>
@@ -675,7 +1127,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -689,6 +1141,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -984,10 +1437,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:AA130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1000,7 +1455,7 @@
     <col min="15" max="15" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="60">
+    <row r="1" spans="1:27" ht="60">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1050,34 +1505,40 @@
         <v>56</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="60">
+        <v>93</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="60">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1107,7 +1568,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:25" ht="60">
+    <row r="3" spans="1:27" ht="60">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1139,7 +1600,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:25" ht="60">
+    <row r="4" spans="1:27" ht="60">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1169,7 +1630,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:25" ht="60">
+    <row r="5" spans="1:27" ht="60">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1201,7 +1662,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:25" ht="105">
+    <row r="6" spans="1:27" ht="105">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1234,13 +1695,13 @@
         <v>6</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="105">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="105">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1272,13 +1733,13 @@
       </c>
       <c r="L7" s="2"/>
       <c r="T7" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="75">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="75">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1311,24 +1772,24 @@
         <v>6</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="75">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="75">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1363,24 +1824,24 @@
         <v>12</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="60">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="60">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1404,13 +1865,13 @@
         <v>46</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="60">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="60">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
@@ -1424,13 +1885,13 @@
         <v>46</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="60">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="60">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -1458,7 +1919,7 @@
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:25" ht="60">
+    <row r="13" spans="1:27" ht="60">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
@@ -1478,7 +1939,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="60">
+    <row r="14" spans="1:27" ht="60">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -1502,13 +1963,13 @@
         <v>46</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="60">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="60">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -1522,13 +1983,13 @@
         <v>46</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="60">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="60">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
@@ -1556,7 +2017,7 @@
       </c>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:17" ht="60">
+    <row r="17" spans="1:25" ht="60">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -1576,7 +2037,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="75">
+    <row r="18" spans="1:25" ht="75">
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
@@ -1590,13 +2051,13 @@
         <v>46</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="75">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="75">
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
@@ -1610,15 +2071,15 @@
         <v>46</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="75">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="75">
       <c r="A20" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>45</v>
@@ -1630,13 +2091,13 @@
         <v>54</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="75">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="75">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
@@ -1650,13 +2111,13 @@
         <v>54</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="75">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="75">
       <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
@@ -1670,13 +2131,13 @@
         <v>46</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="75">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="75">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -1690,15 +2151,15 @@
         <v>46</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="75">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="75">
       <c r="A24" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>49</v>
@@ -1710,13 +2171,13 @@
         <v>54</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="75">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="75">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -1730,13 +2191,13 @@
         <v>54</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="60">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="60">
       <c r="A26" s="2" t="s">
         <v>71</v>
       </c>
@@ -1750,15 +2211,15 @@
         <v>46</v>
       </c>
       <c r="O26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="60">
+      <c r="A27" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="60">
-      <c r="A27" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>49</v>
@@ -1770,15 +2231,15 @@
         <v>54</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="P27" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="105">
+      <c r="A28" s="2" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="60">
-      <c r="A28" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>45</v>
@@ -1790,15 +2251,27 @@
         <v>46</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="75">
+        <v>126</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="105">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>49</v>
@@ -1810,15 +2283,30 @@
         <v>54</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="60">
+        <v>132</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="60">
       <c r="A30" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>45</v>
@@ -1830,18 +2318,18 @@
         <v>46</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="75">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="75">
       <c r="A31" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>49</v>
@@ -1853,88 +2341,698 @@
         <v>54</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="60">
+        <v>78</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U31" t="s">
+        <v>7</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W31" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y31" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="60">
       <c r="A32" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="60">
+    <row r="33" spans="1:16" ht="60">
       <c r="A33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="60">
+      <c r="A34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="60">
+      <c r="A35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="60">
+      <c r="A36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="60">
+      <c r="A37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="60">
+      <c r="A38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="60">
+      <c r="A39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="60">
+      <c r="A40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="60">
+      <c r="A41" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="45">
-      <c r="A34" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="45">
-      <c r="A35" s="2" t="s">
+      <c r="L41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="45">
+      <c r="A42" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="45">
+      <c r="A43" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="45">
+      <c r="A44" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="45">
+      <c r="A45" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="90">
+      <c r="A46" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="90">
+      <c r="A47" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="90">
+      <c r="A48" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="90">
+      <c r="A49" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="90">
+      <c r="A50" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="90">
+      <c r="A51" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="105">
+      <c r="A52" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="105">
+      <c r="A53" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="90">
+      <c r="A54" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="90">
+      <c r="A55" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="60">
+      <c r="A56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O56" s="3"/>
+      <c r="P56" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="60">
+      <c r="A57" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="60">
-      <c r="A36" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="60">
-      <c r="A37" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="45">
-      <c r="A38" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="45">
-      <c r="A39" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="60">
-      <c r="A40" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="60">
-      <c r="A41" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="60">
-      <c r="A42" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="60">
-      <c r="A43" s="2" t="s">
-        <v>114</v>
+      <c r="L57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="60">
+      <c r="A58" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="60">
+      <c r="A59" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="75">
+      <c r="A60" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="75">
+      <c r="A61" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="90">
+      <c r="A62" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="90">
+      <c r="A63" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="75">
+      <c r="A64" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="75">
+      <c r="A65" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="90">
+      <c r="A66" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="90">
+      <c r="A67" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="75">
+      <c r="A68" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="90">
+      <c r="A69" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="75">
+      <c r="A70" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="90">
+      <c r="A71" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="75">
+      <c r="A72" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="75">
+      <c r="A73" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="75">
+      <c r="A74" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="75">
+      <c r="A75" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="90">
+      <c r="A76" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="75">
+      <c r="A77" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="75">
+      <c r="A78" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="75">
+      <c r="A79" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="165">
+      <c r="A80" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="165">
+      <c r="A81" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="165">
+      <c r="A82" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="105">
+      <c r="A83" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="105">
+      <c r="A84" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="105">
+      <c r="A85" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="90">
+      <c r="A86" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="105">
+      <c r="A87" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="75">
+      <c r="A88" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="75">
+      <c r="A89" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="75">
+      <c r="A90" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="75">
+      <c r="A91" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="90">
+      <c r="A92" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="75">
+      <c r="A93" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="90">
+      <c r="A94" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="45">
+      <c r="A95" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="45">
+      <c r="A96" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="60">
+      <c r="A97" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="60">
+      <c r="A98" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="45">
+      <c r="A99" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="60">
+      <c r="A100" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="60">
+      <c r="A101" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="90">
+      <c r="A102" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="75">
+      <c r="A103" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="75">
+      <c r="A104" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="45">
+      <c r="A105" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="60">
+      <c r="A106" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="105">
+      <c r="A107" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="105">
+      <c r="A108" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="105">
+      <c r="A109" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="105">
+      <c r="A110" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="105">
+      <c r="A111" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="105">
+      <c r="A112" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="45">
+      <c r="A113" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="75">
+      <c r="A114" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="60">
+      <c r="A115" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="60">
+      <c r="A116" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="75">
+      <c r="A117" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="75">
+      <c r="A118" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="45">
+      <c r="A119" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="60">
+      <c r="A120" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="60">
+      <c r="A121" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="75">
+      <c r="A122" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="90">
+      <c r="A123" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="90">
+      <c r="A124" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="90">
+      <c r="A125" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="90">
+      <c r="A126" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="60">
+      <c r="A127" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="45">
+      <c r="A128" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="75">
+      <c r="A129" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="75">
+      <c r="A130" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1947,9 +3045,15 @@
     <hyperlink ref="Y8" r:id="rId6"/>
     <hyperlink ref="V9" r:id="rId7"/>
     <hyperlink ref="Y9" r:id="rId8"/>
+    <hyperlink ref="T28" r:id="rId9"/>
+    <hyperlink ref="X28" r:id="rId10"/>
+    <hyperlink ref="T29" r:id="rId11"/>
+    <hyperlink ref="X29" r:id="rId12"/>
+    <hyperlink ref="V31" r:id="rId13"/>
+    <hyperlink ref="Y31" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/dSP/src/main/java/com/testdata/TestDataForExecution.xlsx
+++ b/dSP/src/main/java/com/testdata/TestDataForExecution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="18225" windowHeight="6675"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="27720" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseData" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="246">
   <si>
     <t>sb_imsi</t>
   </si>
@@ -199,26 +199,6 @@
   </si>
   <si>
     <t>Failed NB Order Request_Invalid Request_Rest Async_JSON</t>
-  </si>
-  <si>
-    <t>{
-  "REQUEST": {
-    "ORDER_ID": "Viral_0721_20",
-    "ACTION": "TESTPROVISIONINGINVALID",
-    "IMSI": "414061130340105",
-    "CIRCLE_ID": "1",
-    "CATEGORY": "PREPAID_USIM",
-    "SUB_CATEGORY": "REGULAR",
-    "KI": "8AED970E288D33EACCFDD64BE7FDC99E",
-    "K4": "2",
-    "TRANSPORTKEYID": "40",
-    "AUC_SUBTEMPLATE": "123450000000806",
-    "SCHEDULE": "DYNAMIC"
-  }
-}</t>
-  </si>
-  <si>
-    <t>Viral_0721_20</t>
   </si>
   <si>
     <t>Viral_0721_19</t>
@@ -1067,6 +1047,47 @@
   </si>
   <si>
     <t>IntellzaConfigStatus</t>
+  </si>
+  <si>
+    <t>sb_sub_category</t>
+  </si>
+  <si>
+    <t>NBResponseContains</t>
+  </si>
+  <si>
+    <t>Action tag is not found or Action Name is blank</t>
+  </si>
+  <si>
+    <t>Invalid Action Name</t>
+  </si>
+  <si>
+    <t>CSP System Error</t>
+  </si>
+  <si>
+    <t>CSP6000 : Order Id Not Found</t>
+  </si>
+  <si>
+    <t>CSP0002 : Invalid IMSI Value</t>
+  </si>
+  <si>
+    <t>CSP0000 : Invalid Request</t>
+  </si>
+  <si>
+    <t>{
+  "REQUEST": {
+    "ORDER_ID": "Test_08_06_06",
+    "ACTION": "TESTPROVISIONINGINVALID",
+    "IMSI": "414061130340105",
+    "CIRCLE_ID": "1",
+    "CATEGORY": "PREPAID_USIM",
+    "SUB_CATEGORY": "REGULAR",
+    "KI": "8AED970E288D33EACCFDD64BE7FDC99E",
+    "K4": "2",
+    "TRANSPORTKEYID": "40",
+    "AUC_SUBTEMPLATE": "123450000000806",
+    "SCHEDULE": "DYNAMIC"
+  }
+}</t>
   </si>
 </sst>
 </file>
@@ -1437,12 +1458,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA130"/>
+  <dimension ref="A1:AC130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="AA1" sqref="AA1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1451,11 +1472,11 @@
     <col min="2" max="2" width="15.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="6" max="13" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="60">
+    <row r="1" spans="1:29" ht="60">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1481,64 +1502,70 @@
         <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="60">
+        <v>91</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="60">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1563,12 +1590,13 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" ht="60">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" ht="60">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1591,16 +1619,17 @@
         <v>1</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2">
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2">
         <v>123</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:27" ht="60">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:29" ht="60">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1625,12 +1654,13 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:27" ht="60">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:29" ht="60">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1653,16 +1683,17 @@
         <v>1</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2">
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2">
         <v>123</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:27" ht="105">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:29" ht="105">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1687,21 +1718,22 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="R6" s="2" t="s">
+      <c r="M6" s="2"/>
+      <c r="T6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="V6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="X6" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="105">
+    </row>
+    <row r="7" spans="1:29" ht="105">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1724,22 +1756,23 @@
       <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="T7" s="4" t="s">
+      <c r="M7" s="2"/>
+      <c r="V7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="X7" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="75">
+    </row>
+    <row r="8" spans="1:29" ht="75">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1764,32 +1797,33 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="R8" s="2" t="s">
+      <c r="M8" s="2"/>
+      <c r="T8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="U8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V8" s="4" t="s">
+      <c r="Y8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="W8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="75">
+    </row>
+    <row r="9" spans="1:29" ht="75">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1812,36 +1846,37 @@
       <c r="H9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="R9" s="2" t="s">
+      <c r="M9" s="2"/>
+      <c r="T9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="T9" s="2"/>
       <c r="U9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="X9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="W9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="60">
+    </row>
+    <row r="10" spans="1:29" ht="60">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1855,43 +1890,48 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="60">
+      <c r="P10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:29" ht="90">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="60">
+      <c r="P11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="60">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -1905,41 +1945,44 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:27" ht="60">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:29" ht="60">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="60">
+      <c r="P13" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="60">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -1953,43 +1996,48 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="60">
+      <c r="P14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:29" ht="60">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="60">
+      <c r="P15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="60">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
@@ -2003,1054 +2051,1109 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:25" ht="60">
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:27" ht="90">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="75">
+      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:27" ht="75">
+      <c r="A19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="M19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="75">
+      <c r="A20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:27" ht="75">
+      <c r="A21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="75">
+      <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" ht="75">
-      <c r="A18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" s="2" t="s">
+      <c r="M22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:27" ht="75">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="75">
+      <c r="A24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:27" ht="75">
+      <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="60">
+      <c r="A26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="75">
-      <c r="A19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="2" t="s">
+      <c r="P26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:27" ht="60">
+      <c r="A27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:27" ht="105">
+      <c r="A28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O19" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="75">
-      <c r="A20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="2" t="s">
+      <c r="P28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z28" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="105">
+      <c r="A29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="60">
+      <c r="A30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="75">
+      <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="75">
-      <c r="A21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L21" s="2" t="s">
+      <c r="P31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W31" t="s">
+        <v>7</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA31" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="60">
+      <c r="A32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="60">
+      <c r="A33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="60">
+      <c r="A34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="60">
+      <c r="A35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="75">
-      <c r="A22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="2" t="s">
+      <c r="P35" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="60">
+      <c r="A36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="O36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="75">
-      <c r="A23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" s="2" t="s">
+      <c r="P36" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="60">
+      <c r="A37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="60">
+      <c r="A38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="75">
-      <c r="A24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L24" s="2" t="s">
+      <c r="P38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="60">
+      <c r="A39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="60">
+      <c r="A40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="60">
+      <c r="A41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="75">
-      <c r="A25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" s="2" t="s">
+      <c r="P41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="45">
+      <c r="A42" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="45">
+      <c r="A43" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="45">
+      <c r="A44" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="45">
+      <c r="A45" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="90">
+      <c r="A46" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="90">
+      <c r="A47" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="90">
+      <c r="A48" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="90">
+      <c r="A49" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="90">
+      <c r="A50" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="90">
+      <c r="A51" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="105">
+      <c r="A52" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="105">
+      <c r="A53" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="90">
+      <c r="A54" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="90">
+      <c r="A55" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="60">
+      <c r="A56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R56" s="2"/>
+    </row>
+    <row r="57" spans="1:18" ht="60">
+      <c r="A57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N57" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="O57" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O25" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="60">
-      <c r="A26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="60">
-      <c r="A27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="105">
-      <c r="A28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="T28" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="X28" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="105">
-      <c r="A29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="X29" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="60">
-      <c r="A30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="75">
-      <c r="A31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="U31" t="s">
-        <v>7</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="W31" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y31" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="60">
-      <c r="A32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="60">
-      <c r="A33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="60">
-      <c r="A34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="60">
-      <c r="A35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="60">
-      <c r="A36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="60">
-      <c r="A37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="60">
-      <c r="A38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="60">
-      <c r="A39" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="60">
-      <c r="A40" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O40" s="3" t="s">
+      <c r="P57" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="P40" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="60">
-      <c r="A41" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O41" s="3" t="s">
+      <c r="Q57" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="P41" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="45">
-      <c r="A42" s="2" t="s">
+      <c r="R57" s="2"/>
+    </row>
+    <row r="58" spans="1:18" ht="60">
+      <c r="A58" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="60">
+      <c r="A59" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="45">
-      <c r="A43" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="45">
-      <c r="A44" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="45">
-      <c r="A45" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="90">
-      <c r="A46" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="90">
-      <c r="A47" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="90">
-      <c r="A48" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="90">
-      <c r="A49" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="90">
-      <c r="A50" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="90">
-      <c r="A51" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="105">
-      <c r="A52" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="105">
-      <c r="A53" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="90">
-      <c r="A54" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="90">
-      <c r="A55" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="60">
-      <c r="A56" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O56" s="3"/>
-      <c r="P56" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="60">
-      <c r="A57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="60">
-      <c r="A58" s="2" t="s">
+      <c r="B59" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="75">
+      <c r="A60" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B58" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="60">
-      <c r="A59" s="2" t="s">
+    </row>
+    <row r="61" spans="1:18" ht="75">
+      <c r="A61" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B59" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="75">
-      <c r="A60" s="2" t="s">
+    </row>
+    <row r="62" spans="1:18" ht="90">
+      <c r="A62" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="75">
-      <c r="A61" s="2" t="s">
+    <row r="63" spans="1:18" ht="90">
+      <c r="A63" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="90">
-      <c r="A62" s="2" t="s">
+    <row r="64" spans="1:18" ht="75">
+      <c r="A64" s="2" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="90">
-      <c r="A63" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="75">
-      <c r="A64" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="75">
       <c r="A65" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="90">
       <c r="A66" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="90">
       <c r="A67" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="75">
       <c r="A68" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="90">
       <c r="A69" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="75">
       <c r="A70" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="90">
       <c r="A71" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="75">
       <c r="A72" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="75">
       <c r="A73" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="75">
       <c r="A74" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="75">
       <c r="A75" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="90">
       <c r="A76" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="75">
       <c r="A77" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="75">
       <c r="A78" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="75">
       <c r="A79" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="165">
       <c r="A80" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="165">
       <c r="A81" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="165">
       <c r="A82" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="105">
       <c r="A83" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="105">
       <c r="A84" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="105">
       <c r="A85" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="90">
       <c r="A86" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="105">
       <c r="A87" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="75">
       <c r="A88" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="75">
       <c r="A89" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="75">
       <c r="A90" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="75">
       <c r="A91" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="90">
       <c r="A92" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="75">
       <c r="A93" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="90">
       <c r="A94" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="45">
       <c r="A95" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="45">
       <c r="A96" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="60">
       <c r="A97" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="60">
       <c r="A98" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="45">
       <c r="A99" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="60">
       <c r="A100" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="60">
       <c r="A101" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="90">
       <c r="A102" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="75">
       <c r="A103" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="75">
       <c r="A104" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="45">
       <c r="A105" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="60">
       <c r="A106" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="105">
       <c r="A107" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="105">
       <c r="A108" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="105">
       <c r="A109" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="105">
       <c r="A110" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="105">
       <c r="A111" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="105">
       <c r="A112" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="45">
       <c r="A113" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="75">
       <c r="A114" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="60">
       <c r="A115" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="60">
       <c r="A116" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="75">
       <c r="A117" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="75">
       <c r="A118" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="45">
       <c r="A119" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="60">
       <c r="A120" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="60">
       <c r="A121" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="75">
       <c r="A122" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="90">
       <c r="A123" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="90">
       <c r="A124" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="90">
       <c r="A125" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="90">
       <c r="A126" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="60">
       <c r="A127" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="45">
       <c r="A128" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="75">
       <c r="A129" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="75">
       <c r="A130" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T6" r:id="rId1"/>
-    <hyperlink ref="T7" r:id="rId2"/>
-    <hyperlink ref="X6" r:id="rId3"/>
-    <hyperlink ref="X7" r:id="rId4"/>
-    <hyperlink ref="V8" r:id="rId5"/>
-    <hyperlink ref="Y8" r:id="rId6"/>
-    <hyperlink ref="V9" r:id="rId7"/>
-    <hyperlink ref="Y9" r:id="rId8"/>
-    <hyperlink ref="T28" r:id="rId9"/>
-    <hyperlink ref="X28" r:id="rId10"/>
-    <hyperlink ref="T29" r:id="rId11"/>
-    <hyperlink ref="X29" r:id="rId12"/>
-    <hyperlink ref="V31" r:id="rId13"/>
-    <hyperlink ref="Y31" r:id="rId14"/>
+    <hyperlink ref="V6" r:id="rId1"/>
+    <hyperlink ref="V7" r:id="rId2"/>
+    <hyperlink ref="Z6" r:id="rId3"/>
+    <hyperlink ref="Z7" r:id="rId4"/>
+    <hyperlink ref="X8" r:id="rId5"/>
+    <hyperlink ref="AA8" r:id="rId6"/>
+    <hyperlink ref="X9" r:id="rId7"/>
+    <hyperlink ref="AA9" r:id="rId8"/>
+    <hyperlink ref="V28" r:id="rId9"/>
+    <hyperlink ref="Z28" r:id="rId10"/>
+    <hyperlink ref="V29" r:id="rId11"/>
+    <hyperlink ref="Z29" r:id="rId12"/>
+    <hyperlink ref="X31" r:id="rId13"/>
+    <hyperlink ref="AA31" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
